--- a/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>0</v>

--- a/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C3">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C2">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C2">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>2</v>

--- a/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C2">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
